--- a/Docs/Testing (TES)/Tested/Test_log.xlsx
+++ b/Docs/Testing (TES)/Tested/Test_log.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>N</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>Pass rate (%)</t>
+  </si>
+  <si>
+    <t>Gorshkov</t>
+  </si>
+  <si>
+    <t>v 1.1</t>
+  </si>
+  <si>
+    <t>v 1.0</t>
   </si>
 </sst>
 </file>
@@ -82,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -90,6 +99,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -424,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -476,26 +488,70 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="3" t="e">
-        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J2" s="1"/>
+      <c r="B2" s="7">
+        <v>41469</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>112</v>
+      </c>
+      <c r="F2" s="1">
+        <v>55</v>
+      </c>
+      <c r="G2" s="1">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3">
+        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
+        <v>33.035714285714285</v>
+      </c>
+      <c r="J2" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="I3" s="4" t="e">
-        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
-        <v>#DIV/0!</v>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>41469</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>127</v>
+      </c>
+      <c r="F3">
+        <v>127</v>
+      </c>
+      <c r="G3">
+        <v>57</v>
+      </c>
+      <c r="H3">
+        <v>70</v>
+      </c>
+      <c r="I3" s="4">
+        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
+        <v>44.881889763779526</v>
+      </c>
+      <c r="J3">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10">
+      <c r="B4" s="5"/>
       <c r="I4" s="4" t="e">
         <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
         <v>#DIV/0!</v>

--- a/Docs/Testing (TES)/Tested/Test_log.xlsx
+++ b/Docs/Testing (TES)/Tested/Test_log.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>N</t>
   </si>
@@ -55,13 +55,16 @@
   </si>
   <si>
     <t>v 1.0</t>
+  </si>
+  <si>
+    <t>Zazulya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,26 +114,21 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:J16" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:J16">
-    <filterColumn colId="1"/>
-    <filterColumn colId="2"/>
-    <filterColumn colId="3"/>
-    <filterColumn colId="4"/>
-    <filterColumn colId="5"/>
-    <filterColumn colId="6"/>
-    <filterColumn colId="7"/>
-    <filterColumn colId="8"/>
-    <filterColumn colId="9"/>
-  </autoFilter>
+  <autoFilter ref="A1:J16"/>
   <tableColumns count="10">
     <tableColumn id="1" name="N"/>
     <tableColumn id="2" name="Date"/>
@@ -224,6 +222,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -258,6 +257,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -433,14 +433,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -454,7 +454,7 @@
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -486,7 +486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7">
         <v>41469</v>
@@ -517,7 +517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -550,80 +550,103 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="5"/>
-      <c r="I4" s="4" t="e">
-        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="7">
+        <v>41469</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>71</v>
+      </c>
+      <c r="F4">
+        <v>71</v>
+      </c>
+      <c r="G4">
+        <v>39</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4" s="4">
+        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
+        <v>54.929577464788736</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I5" s="4" t="e">
         <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I6" s="4" t="e">
         <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I7" s="4" t="e">
         <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I8" s="4" t="e">
         <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I9" s="4" t="e">
         <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I10" s="4" t="e">
         <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I11" s="4" t="e">
         <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I12" s="4" t="e">
         <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I13" s="4" t="e">
         <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I14" s="4" t="e">
         <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I15" s="4" t="e">
         <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -648,24 +671,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/Testing (TES)/Tested/Test_log.xlsx
+++ b/Docs/Testing (TES)/Tested/Test_log.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>N</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Pass tests</t>
   </si>
   <si>
-    <t>Fail and blocked tests</t>
-  </si>
-  <si>
     <t>Tickets</t>
   </si>
   <si>
@@ -58,13 +55,19 @@
   </si>
   <si>
     <t>Zazulya</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,27 +97,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -127,9 +141,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:J16" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:J16"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:K18" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:K18">
+    <filterColumn colId="9"/>
+    <filterColumn colId="10"/>
+  </autoFilter>
+  <tableColumns count="11">
     <tableColumn id="1" name="N"/>
     <tableColumn id="2" name="Date"/>
     <tableColumn id="3" name="Version"/>
@@ -137,11 +154,12 @@
     <tableColumn id="5" name="All tests"/>
     <tableColumn id="6" name="Check tests"/>
     <tableColumn id="7" name="Pass tests"/>
-    <tableColumn id="8" name="Fail and blocked tests"/>
-    <tableColumn id="9" name="Pass rate (%)" dataDxfId="0">
+    <tableColumn id="8" name="Fail"/>
+    <tableColumn id="10" name="Blocked" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="13" name="Pass rate (%)" dataDxfId="0">
       <calculatedColumnFormula>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Tickets"/>
+    <tableColumn id="14" name="Tickets"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -222,7 +240,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -257,7 +274,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -433,14 +449,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -450,11 +466,12 @@
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" customWidth="1"/>
     <col min="8" max="8" width="26.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -477,25 +494,30 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="7">
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
         <v>41469</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1">
         <v>112</v>
@@ -507,28 +529,31 @@
         <v>37</v>
       </c>
       <c r="H2" s="1">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3">
+        <v>6</v>
+      </c>
+      <c r="I2" s="7">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3">
         <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
         <v>33.035714285714285</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>41469</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>127</v>
@@ -540,25 +565,31 @@
         <v>57</v>
       </c>
       <c r="H3">
-        <v>70</v>
-      </c>
-      <c r="I3" s="4">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7">
+        <v>55</v>
+      </c>
+      <c r="J3" s="3">
         <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
         <v>44.881889763779526</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
         <v>41469</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
       <c r="E4">
         <v>71</v>
@@ -570,83 +601,86 @@
         <v>39</v>
       </c>
       <c r="H4">
-        <v>32</v>
-      </c>
-      <c r="I4" s="4">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3">
         <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
         <v>54.929577464788736</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I5" s="4" t="e">
-        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I6" s="4" t="e">
-        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I7" s="4" t="e">
-        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I8" s="4" t="e">
-        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I9" s="4" t="e">
-        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I10" s="4" t="e">
-        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I11" s="4" t="e">
-        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I12" s="4" t="e">
-        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I13" s="4" t="e">
-        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I14" s="4" t="e">
-        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I15" s="4" t="e">
-        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
+      <c r="J5" s="3" t="e">
+        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="J6" s="3" t="e">
+        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="J7" s="3" t="e">
+        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="J8" s="3" t="e">
+        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="J9" s="3" t="e">
+        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="J10" s="3" t="e">
+        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="J11" s="3" t="e">
+        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="J12" s="3" t="e">
+        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="J13" s="3" t="e">
+        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="J14" s="3" t="e">
+        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="J15" s="3" t="e">
+        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -655,11 +689,31 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="3" t="e">
-        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="3" t="e">
+        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="J17" s="3" t="e">
+        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="3" t="e">
+        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -671,24 +725,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/Testing (TES)/Tested/Test_log.xlsx
+++ b/Docs/Testing (TES)/Tested/Test_log.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>N</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>v 1.2</t>
   </si>
 </sst>
 </file>
@@ -452,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -615,9 +618,39 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="J5" s="3" t="e">
-        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
-        <v>#DIV/0!</v>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>41537</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>128</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2">
+        <v>8</v>
+      </c>
+      <c r="J5" s="3">
+        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
+        <v>8.59375</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:11">

--- a/Docs/Testing (TES)/Tested/Test_log.xlsx
+++ b/Docs/Testing (TES)/Tested/Test_log.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>N</t>
   </si>
@@ -69,8 +69,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,13 +125,13 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -145,10 +145,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:K18" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:K18">
-    <filterColumn colId="9"/>
-    <filterColumn colId="10"/>
-  </autoFilter>
+  <autoFilter ref="A1:K18"/>
   <tableColumns count="11">
     <tableColumn id="1" name="N"/>
     <tableColumn id="2" name="Date"/>
@@ -243,6 +240,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -277,6 +275,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -452,14 +451,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -474,7 +473,7 @@
     <col min="11" max="11" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -509,7 +508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -545,7 +544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -581,7 +580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -617,7 +616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -653,67 +652,88 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="J6" s="3" t="e">
-        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>71</v>
+      </c>
+      <c r="F6">
+        <v>71</v>
+      </c>
+      <c r="G6">
+        <v>47</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2">
+        <v>8</v>
+      </c>
+      <c r="J6" s="3">
+        <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
+        <v>66.197183098591552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J7" s="3" t="e">
         <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J8" s="3" t="e">
         <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J9" s="3" t="e">
         <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J10" s="3" t="e">
         <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J11" s="3" t="e">
         <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J12" s="3" t="e">
         <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J13" s="3" t="e">
         <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J14" s="3" t="e">
         <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J15" s="3" t="e">
         <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -727,13 +747,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J17" s="3" t="e">
         <f>(Таблица1[[#This Row],[Pass tests]]/Таблица1[[#This Row],[All tests]]) * 100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -758,24 +778,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
